--- a/biology/Botanique/Trichomanes_pellucens/Trichomanes_pellucens.xlsx
+++ b/biology/Botanique/Trichomanes_pellucens/Trichomanes_pellucens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes pellucens est une espèce de fougères de la famille des Hyménophyllacées originaire d'Amérique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 un port cespiteux, avec un court stipe où s'ordonnent des racines brun-foncé à noires ;
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plutôt terrestre mais aussi épiphyte, est présente en Amérique tropicale, principalement du Sud : Bolivie, Brésil, Colombie, Équateur, Pérou, Venezuela et en Guyane.
 </t>
@@ -578,12 +594,14 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1834, Gustav Kunze décrit une première fois cette espèce à partir d'un échantillon de l'herbier d'Eduard Friedrich Poeppig prélevé dans la région de Huellaga au Pérou en 1830[2]
-En 1875, Karl Anton Eugen Prantl la place dans le genre Ptilophyllum section Achomanes sous-section Crispa[3].
-En 1974, Conrad Vernon Morton la place dans la sous-section Crispa de la section Achomanes du sous-genre Achomanes du genre Trichomanes[4].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Trichomanes alatum comme espèce représentative du genre Trichomanes, sous-genre Trichomanes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1834, Gustav Kunze décrit une première fois cette espèce à partir d'un échantillon de l'herbier d'Eduard Friedrich Poeppig prélevé dans la région de Huellaga au Pérou en 1830
+En 1875, Karl Anton Eugen Prantl la place dans le genre Ptilophyllum section Achomanes sous-section Crispa.
+En 1974, Conrad Vernon Morton la place dans la sous-section Crispa de la section Achomanes du sous-genre Achomanes du genre Trichomanes.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Trichomanes alatum comme espèce représentative du genre Trichomanes, sous-genre Trichomanes.
 Trichomanes pellucens est classé dans le sous-genre Trichomanes.
 Elle compte deux synonymes :
 Ptilophyllum pellucens (Kunze) Prantl
